--- a/ExampleFolder/InputData/v_example/Machines - Data/Natural_gas_vehicles/Natural_gas_vehicles.xlsx
+++ b/ExampleFolder/InputData/v_example/Machines - Data/Natural_gas_vehicles/Natural_gas_vehicles.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947D617-B1A5-49C7-AC73-D7217D08F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14D7DF-165E-4A21-8757-C6705C257A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REFS" sheetId="6" r:id="rId1"/>
-    <sheet name="FIN_ETA" sheetId="2" r:id="rId2"/>
-    <sheet name="Calcs" sheetId="8" r:id="rId3"/>
-    <sheet name="Bharathan_2017" sheetId="5" r:id="rId4"/>
+    <sheet name="FIN_ETA" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="\0">[1]TABLE1a!$U$1:$U$7</definedName>
@@ -172,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -210,147 +207,6 @@
     <t>eta.fu</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.jclepro.2017.07.233</t>
-  </si>
-  <si>
-    <t>Bharathan et al (2017) - Analysis of energy consumption and carbon footprint from underground haulage with different power sources in typical Canadian mines</t>
-  </si>
-  <si>
-    <t>@article{bharathan2017analysis,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  title={Analysis of energy consumption and carbon footprint from underground haulage with different power sources in typical Canadian mines},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  author={Bharathan, Bhargav and Sasmito, Agus P and Ghoreishi-Madiseh, Seyed Ali},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  journal={Journal of Cleaner Production},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  volume={166},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  pages={21--31},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  year={2017},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  publisher={Elsevier}</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  doi = {10.1016/j.jclepro.2017.07.233},</t>
-  </si>
-  <si>
-    <t>Natural gas vehicles - allocations</t>
-  </si>
-  <si>
-    <t>final energy (fuel) is allocated to one end use:</t>
-  </si>
-  <si>
-    <t>https://www.grandviewresearch.com/industry-analysis/automotive-natural-gas-vehicles-market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, we decide to allocate to one natural gas vehicle. </t>
-  </si>
-  <si>
-    <t>then, we produce a combined efficiency for a natural gas vehicle from</t>
-  </si>
-  <si>
-    <t>A - take world/average gasoline LDV efficiency</t>
-  </si>
-  <si>
-    <t>B - take world/average diesel HDV efficiency</t>
-  </si>
-  <si>
-    <t>https://bioage.typepad.com/.a/6a00d8341c4fbe53ef0192ab4dc973970d-600wi</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/data/10309</t>
-  </si>
-  <si>
-    <t>C - NGV efficiency = 0.74*A + 0.26*B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average </t>
-  </si>
-  <si>
-    <t>number per 100 vehicles</t>
-  </si>
-  <si>
-    <t>approx miles/year</t>
-  </si>
-  <si>
-    <t>approx. fuel economy, mpg</t>
-  </si>
-  <si>
-    <t>number of gallons/year</t>
-  </si>
-  <si>
-    <t>Natural_gas_LDV</t>
-  </si>
-  <si>
-    <t>Natural_gas_HDV</t>
-  </si>
-  <si>
-    <t>weighted average</t>
-  </si>
-  <si>
-    <t>gasoline engine efficiency</t>
-  </si>
-  <si>
-    <t>CNG engine efficiency (Bharanthan, 2017)</t>
-  </si>
-  <si>
-    <t>gasoline LDV</t>
-  </si>
-  <si>
-    <t>middle bound</t>
-  </si>
-  <si>
-    <t>diesel HDV</t>
-  </si>
-  <si>
-    <t>Data from gasoline LDV &amp; diesel HDV efficiency excel files:</t>
-  </si>
-  <si>
-    <t>Natural_gas_vehicle</t>
-  </si>
-  <si>
-    <t>@article{das2000comparative,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  title={A comparative evaluation of the performance characteristics of a spark ignition engine using hydrogen and compressed natural gas as alternative fuels},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  author={Das, LM and Gulati, Rohit and Gupta, Pankaj Kumar},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  journal={International journal of hydrogen energy},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  volume={25},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  number={8},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  pages={783--793},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  year={2000},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  doi = {10.1016/S0360-3199(99)00103-2},</t>
-  </si>
-  <si>
-    <t>diesel engine efficiency  (Bharanthan, 2017)</t>
-  </si>
-  <si>
     <t>RoP</t>
   </si>
   <si>
@@ -361,11 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,59 +255,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -476,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -484,15 +290,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,42 +309,16 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Percent 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,211 +333,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>172506</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Clipping">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="22435"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714374" y="4419600"/>
-          <a:ext cx="5849407" cy="4086225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>67479</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>10022</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Clipping">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715250" y="5591175"/>
-          <a:ext cx="5763429" cy="3562847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654082</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Clipping">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885824" y="10134599"/>
-          <a:ext cx="6159533" cy="4171951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>505943</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368151</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149330</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4149256" y="702467"/>
-          <a:ext cx="4719958" cy="3447363"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CommentarySA"/>
@@ -1767,7 +1339,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Year"/>
@@ -2042,7 +1614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TIS-INDEX"/>
@@ -3147,7 +2719,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CommentarySA"/>
@@ -3441,2178 +3013,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BP27"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>1960</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>1961</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>1962</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>1963</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>1964</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>1965</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>1966</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>1967</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>1968</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>1969</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>1970</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>1971</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>1972</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>1973</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>1974</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>1975</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>1976</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>1977</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>1978</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>1979</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>1980</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>1981</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>1982</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>1983</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>1984</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>1985</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>1986</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>1987</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>1988</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>1989</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>1990</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>1991</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>1992</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>1993</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>1994</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>1995</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>1996</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>1997</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>1998</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>1999</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>2000</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>2001</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>2002</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>2003</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>2004</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>2005</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>2006</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>2007</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>2008</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>2009</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>2010</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>2011</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>2012</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>2013</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>2014</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>2015</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>2016</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>2017</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>2018</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>2019</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4">
-        <f>Calcs!H89</f>
+      <c r="H2" s="3">
         <v>0.20118403390641193</v>
       </c>
-      <c r="I2" s="4">
-        <f>Calcs!I89</f>
+      <c r="I2" s="3">
         <v>0.19986298944527098</v>
       </c>
-      <c r="J2" s="4">
-        <f>Calcs!J89</f>
+      <c r="J2" s="3">
         <v>0.19864910577326808</v>
       </c>
-      <c r="K2" s="4">
-        <f>Calcs!K89</f>
+      <c r="K2" s="3">
         <v>0.1975370673516644</v>
       </c>
-      <c r="L2" s="4">
-        <f>Calcs!L89</f>
+      <c r="L2" s="3">
         <v>0.19652188823669448</v>
       </c>
-      <c r="M2" s="4">
-        <f>Calcs!M89</f>
+      <c r="M2" s="3">
         <v>0.19559888411049506</v>
       </c>
-      <c r="N2" s="4">
-        <f>Calcs!N89</f>
+      <c r="N2" s="3">
         <v>0.19476365749733887</v>
       </c>
-      <c r="O2" s="4">
-        <f>Calcs!O89</f>
+      <c r="O2" s="3">
         <v>0.19401208160055122</v>
       </c>
-      <c r="P2" s="4">
-        <f>Calcs!P89</f>
+      <c r="P2" s="3">
         <v>0.19334028350980031</v>
       </c>
-      <c r="Q2" s="4">
-        <f>Calcs!Q89</f>
+      <c r="Q2" s="3">
         <v>0.19274462729996716</v>
       </c>
-      <c r="R2" s="4">
-        <f>Calcs!R89</f>
+      <c r="R2" s="3">
         <v>0.19222169737723033</v>
       </c>
-      <c r="S2" s="4">
-        <f>Calcs!S89</f>
+      <c r="S2" s="3">
         <v>0.19176828230829912</v>
       </c>
-      <c r="T2" s="4">
-        <f>Calcs!T89</f>
+      <c r="T2" s="3">
         <v>0.19138135928251043</v>
       </c>
-      <c r="U2" s="4">
-        <f>Calcs!U89</f>
+      <c r="U2" s="3">
         <v>0.19105807929477586</v>
       </c>
-      <c r="V2" s="4">
-        <f>Calcs!V89</f>
+      <c r="V2" s="3">
         <v>0.19079575309355618</v>
       </c>
-      <c r="W2" s="4">
-        <f>Calcs!W89</f>
+      <c r="W2" s="3">
         <v>0.19059183790733639</v>
       </c>
-      <c r="X2" s="4">
-        <f>Calcs!X89</f>
+      <c r="X2" s="3">
         <v>0.19044392494196447</v>
       </c>
-      <c r="Y2" s="4">
-        <f>Calcs!Y89</f>
+      <c r="Y2" s="3">
         <v>0.19034972762709804</v>
       </c>
-      <c r="Z2" s="4">
-        <f>Calcs!Z89</f>
+      <c r="Z2" s="3">
         <v>0.19030707058098362</v>
       </c>
-      <c r="AA2" s="4">
-        <f>Calcs!AA89</f>
+      <c r="AA2" s="3">
         <v>0.19031387925745699</v>
       </c>
-      <c r="AB2" s="4">
-        <f>Calcs!AB89</f>
+      <c r="AB2" s="3">
         <v>0.19036817023638153</v>
       </c>
-      <c r="AC2" s="4">
-        <f>Calcs!AC89</f>
+      <c r="AC2" s="3">
         <v>0.19046804211795923</v>
       </c>
-      <c r="AD2" s="4">
-        <f>Calcs!AD89</f>
+      <c r="AD2" s="3">
         <v>0.19061166698190768</v>
       </c>
-      <c r="AE2" s="4">
-        <f>Calcs!AE89</f>
+      <c r="AE2" s="3">
         <v>0.19079728237397672</v>
       </c>
-      <c r="AF2" s="4">
-        <f>Calcs!AF89</f>
+      <c r="AF2" s="3">
         <v>0.19102318378438402</v>
       </c>
-      <c r="AG2" s="4">
-        <f>Calcs!AG89</f>
+      <c r="AG2" s="3">
         <v>0.19128771758525687</v>
       </c>
-      <c r="AH2" s="4">
-        <f>Calcs!AH89</f>
+      <c r="AH2" s="3">
         <v>0.19158927439691709</v>
       </c>
-      <c r="AI2" s="4">
-        <f>Calcs!AI89</f>
+      <c r="AI2" s="3">
         <v>0.19192628285572569</v>
       </c>
-      <c r="AJ2" s="4">
-        <f>Calcs!AJ89</f>
+      <c r="AJ2" s="3">
         <v>0.19229720375912374</v>
       </c>
-      <c r="AK2" s="4">
-        <f>Calcs!AK89</f>
+      <c r="AK2" s="3">
         <v>0.19270052456641198</v>
       </c>
-      <c r="AL2" s="4">
-        <f>Calcs!AL89</f>
+      <c r="AL2" s="3">
         <v>0.19313475423665696</v>
       </c>
-      <c r="AM2" s="4">
-        <f>Calcs!AM89</f>
+      <c r="AM2" s="3">
         <v>0.19359841838786693</v>
       </c>
-      <c r="AN2" s="4">
-        <f>Calcs!AN89</f>
+      <c r="AN2" s="3">
         <v>0.19409005476422816</v>
       </c>
-      <c r="AO2" s="4">
-        <f>Calcs!AO89</f>
+      <c r="AO2" s="3">
         <v>0.19460820900070469</v>
       </c>
-      <c r="AP2" s="4">
-        <f>Calcs!AP89</f>
+      <c r="AP2" s="3">
         <v>0.19515143067668517</v>
       </c>
-      <c r="AQ2" s="4">
-        <f>Calcs!AQ89</f>
+      <c r="AQ2" s="3">
         <v>0.19571826965258532</v>
       </c>
-      <c r="AR2" s="4">
-        <f>Calcs!AR89</f>
+      <c r="AR2" s="3">
         <v>0.19630727268538375</v>
       </c>
-      <c r="AS2" s="4">
-        <f>Calcs!AS89</f>
+      <c r="AS2" s="3">
         <v>0.19691698032097188</v>
       </c>
-      <c r="AT2" s="4">
-        <f>Calcs!AT89</f>
+      <c r="AT2" s="3">
         <v>0.19754592406292906</v>
       </c>
-      <c r="AU2" s="4">
-        <f>Calcs!AU89</f>
+      <c r="AU2" s="3">
         <v>0.19819262381888456</v>
       </c>
-      <c r="AV2" s="4">
-        <f>Calcs!AV89</f>
+      <c r="AV2" s="3">
         <v>0.19885558562698979</v>
       </c>
-      <c r="AW2" s="4">
-        <f>Calcs!AW89</f>
+      <c r="AW2" s="3">
         <v>0.19953329966619637</v>
       </c>
-      <c r="AX2" s="4">
-        <f>Calcs!AX89</f>
+      <c r="AX2" s="3">
         <v>0.20022423855500343</v>
       </c>
-      <c r="AY2" s="4">
-        <f>Calcs!AY89</f>
+      <c r="AY2" s="3">
         <v>0.20092685594410409</v>
       </c>
-      <c r="AZ2" s="4">
-        <f>Calcs!AZ89</f>
+      <c r="AZ2" s="3">
         <v>0.20163958540891533</v>
       </c>
-      <c r="BA2" s="4">
-        <f>Calcs!BA89</f>
+      <c r="BA2" s="3">
         <v>0.20236083964832111</v>
       </c>
-      <c r="BB2" s="4">
-        <f>Calcs!BB89</f>
+      <c r="BB2" s="3">
         <v>0.20308900999608615</v>
       </c>
-      <c r="BC2" s="4">
-        <f>Calcs!BC89</f>
+      <c r="BC2" s="3">
         <v>0.20382246625131936</v>
       </c>
-      <c r="BD2" s="4">
-        <f>Calcs!BD89</f>
+      <c r="BD2" s="3">
         <v>0.20455955683407825</v>
       </c>
-      <c r="BE2" s="4">
-        <f>Calcs!BE89</f>
+      <c r="BE2" s="3">
         <v>0.20529860927171362</v>
       </c>
-      <c r="BF2" s="4">
-        <f>Calcs!BF89</f>
+      <c r="BF2" s="3">
         <v>0.20603793102087903</v>
       </c>
-      <c r="BG2" s="4">
-        <f>Calcs!BG89</f>
+      <c r="BG2" s="3">
         <v>0.20677581062926675</v>
       </c>
-      <c r="BH2" s="4">
-        <f>Calcs!BH89</f>
+      <c r="BH2" s="3">
         <v>0.20751051924011238</v>
       </c>
-      <c r="BI2" s="4">
-        <f>Calcs!BI89</f>
+      <c r="BI2" s="3">
         <v>0.20824031244133362</v>
       </c>
-      <c r="BJ2" s="4">
-        <f>Calcs!BJ89</f>
+      <c r="BJ2" s="3">
         <v>0.20896343245986973</v>
       </c>
-      <c r="BK2" s="4">
-        <f>Calcs!BK89</f>
+      <c r="BK2" s="3">
         <v>0.20967811070036046</v>
       </c>
-      <c r="BL2" s="4">
-        <f>Calcs!BL89</f>
+      <c r="BL2" s="3">
         <v>0.21038257062577914</v>
       </c>
-      <c r="BM2" s="4">
-        <f>Calcs!BM89</f>
+      <c r="BM2" s="3">
         <v>0.21107503097601232</v>
       </c>
-      <c r="BN2" s="4">
-        <f>Calcs!BN89</f>
+      <c r="BN2" s="3">
         <v>0.21175370931866175</v>
       </c>
-      <c r="BO2" s="4">
-        <f>Calcs!BO89</f>
+      <c r="BO2" s="3">
         <v>0.21241682592453309</v>
       </c>
-      <c r="BP2" s="4">
-        <f>Calcs!BP89</f>
+      <c r="BP2" s="3">
         <v>0.21306260795834572</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="3" customFormat="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:68" s="3" customFormat="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:68" s="3" customFormat="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+    <row r="5" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:68" s="3" customFormat="1"/>
-    <row r="7" spans="1:68" s="3" customFormat="1"/>
-    <row r="8" spans="1:68" s="3" customFormat="1"/>
-    <row r="9" spans="1:68" s="3" customFormat="1"/>
-    <row r="10" spans="1:68" s="3" customFormat="1"/>
-    <row r="11" spans="1:68" s="3" customFormat="1"/>
-    <row r="12" spans="1:68" s="3" customFormat="1"/>
-    <row r="13" spans="1:68" s="3" customFormat="1"/>
-    <row r="14" spans="1:68" s="3" customFormat="1"/>
-    <row r="15" spans="1:68" s="3" customFormat="1"/>
-    <row r="16" spans="1:68" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" s="3" customFormat="1"/>
-    <row r="26" s="3" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
+    <row r="6" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:BP89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H86" sqref="H86:BP86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14">
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="30">
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70">
-        <v>90</v>
-      </c>
-      <c r="D70" s="10">
-        <v>12000</v>
-      </c>
-      <c r="E70">
-        <v>30</v>
-      </c>
-      <c r="F70">
-        <f>C70*D70/E70</f>
-        <v>36000</v>
-      </c>
-      <c r="G70" s="11">
-        <f>F70/(F70+F71)</f>
-        <v>0.26470588235294118</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-      <c r="D71" s="10">
-        <v>50000</v>
-      </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71">
-        <f>C71*D71/E71</f>
-        <v>100000</v>
-      </c>
-      <c r="G71" s="11">
-        <f>1-G70</f>
-        <v>0.73529411764705888</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="12">
-        <f>E70*G70+E71*G71</f>
-        <v>11.617647058823529</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="13">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="14">
-        <f>C76/1.25</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="16">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:68">
-      <c r="C81" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:68">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>1960</v>
-      </c>
-      <c r="I82">
-        <v>1961</v>
-      </c>
-      <c r="J82">
-        <v>1962</v>
-      </c>
-      <c r="K82">
-        <v>1963</v>
-      </c>
-      <c r="L82">
-        <v>1964</v>
-      </c>
-      <c r="M82">
-        <v>1965</v>
-      </c>
-      <c r="N82">
-        <v>1966</v>
-      </c>
-      <c r="O82">
-        <v>1967</v>
-      </c>
-      <c r="P82">
-        <v>1968</v>
-      </c>
-      <c r="Q82">
-        <v>1969</v>
-      </c>
-      <c r="R82">
-        <v>1970</v>
-      </c>
-      <c r="S82">
-        <v>1971</v>
-      </c>
-      <c r="T82">
-        <v>1972</v>
-      </c>
-      <c r="U82">
-        <v>1973</v>
-      </c>
-      <c r="V82">
-        <v>1974</v>
-      </c>
-      <c r="W82">
-        <v>1975</v>
-      </c>
-      <c r="X82">
-        <v>1976</v>
-      </c>
-      <c r="Y82">
-        <v>1977</v>
-      </c>
-      <c r="Z82">
-        <v>1978</v>
-      </c>
-      <c r="AA82">
-        <v>1979</v>
-      </c>
-      <c r="AB82">
-        <v>1980</v>
-      </c>
-      <c r="AC82">
-        <v>1981</v>
-      </c>
-      <c r="AD82">
-        <v>1982</v>
-      </c>
-      <c r="AE82">
-        <v>1983</v>
-      </c>
-      <c r="AF82">
-        <v>1984</v>
-      </c>
-      <c r="AG82">
-        <v>1985</v>
-      </c>
-      <c r="AH82">
-        <v>1986</v>
-      </c>
-      <c r="AI82">
-        <v>1987</v>
-      </c>
-      <c r="AJ82">
-        <v>1988</v>
-      </c>
-      <c r="AK82">
-        <v>1989</v>
-      </c>
-      <c r="AL82">
-        <v>1990</v>
-      </c>
-      <c r="AM82">
-        <v>1991</v>
-      </c>
-      <c r="AN82">
-        <v>1992</v>
-      </c>
-      <c r="AO82">
-        <v>1993</v>
-      </c>
-      <c r="AP82">
-        <v>1994</v>
-      </c>
-      <c r="AQ82">
-        <v>1995</v>
-      </c>
-      <c r="AR82">
-        <v>1996</v>
-      </c>
-      <c r="AS82">
-        <v>1997</v>
-      </c>
-      <c r="AT82">
-        <v>1998</v>
-      </c>
-      <c r="AU82">
-        <v>1999</v>
-      </c>
-      <c r="AV82">
-        <v>2000</v>
-      </c>
-      <c r="AW82">
-        <v>2001</v>
-      </c>
-      <c r="AX82">
-        <v>2002</v>
-      </c>
-      <c r="AY82">
-        <v>2003</v>
-      </c>
-      <c r="AZ82">
-        <v>2004</v>
-      </c>
-      <c r="BA82">
-        <v>2005</v>
-      </c>
-      <c r="BB82">
-        <v>2006</v>
-      </c>
-      <c r="BC82">
-        <v>2007</v>
-      </c>
-      <c r="BD82">
-        <v>2008</v>
-      </c>
-      <c r="BE82">
-        <v>2009</v>
-      </c>
-      <c r="BF82">
-        <v>2010</v>
-      </c>
-      <c r="BG82">
-        <v>2011</v>
-      </c>
-      <c r="BH82">
-        <v>2012</v>
-      </c>
-      <c r="BI82">
-        <v>2013</v>
-      </c>
-      <c r="BJ82">
-        <v>2014</v>
-      </c>
-      <c r="BK82">
-        <v>2015</v>
-      </c>
-      <c r="BL82">
-        <v>2016</v>
-      </c>
-      <c r="BM82">
-        <v>2017</v>
-      </c>
-      <c r="BN82">
-        <v>2018</v>
-      </c>
-      <c r="BO82">
-        <v>2019</v>
-      </c>
-      <c r="BP82">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="83" spans="1:68">
-      <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="14">
-        <v>0.12584235911910077</v>
-      </c>
-      <c r="I83" s="14">
-        <v>0.12666682681237498</v>
-      </c>
-      <c r="J83" s="14">
-        <v>0.12750193577932861</v>
-      </c>
-      <c r="K83" s="14">
-        <v>0.12834788740019124</v>
-      </c>
-      <c r="L83" s="14">
-        <v>0.12920488795905244</v>
-      </c>
-      <c r="M83" s="14">
-        <v>0.130073148784521</v>
-      </c>
-      <c r="N83" s="14">
-        <v>0.13095288639470876</v>
-      </c>
-      <c r="O83" s="14">
-        <v>0.13184432264665702</v>
-      </c>
-      <c r="P83" s="14">
-        <v>0.13274768489032204</v>
-      </c>
-      <c r="Q83" s="14">
-        <v>0.13366320612723617</v>
-      </c>
-      <c r="R83" s="14">
-        <v>0.13459112517396046</v>
-      </c>
-      <c r="S83" s="14">
-        <v>0.13553168683044178</v>
-      </c>
-      <c r="T83" s="14">
-        <v>0.13648514205338619</v>
-      </c>
-      <c r="U83" s="14">
-        <v>0.13745174813475602</v>
-      </c>
-      <c r="V83" s="14">
-        <v>0.13843176888549444</v>
-      </c>
-      <c r="W83" s="14">
-        <v>0.13942547482457404</v>
-      </c>
-      <c r="X83" s="14">
-        <v>0.14043314337346202</v>
-      </c>
-      <c r="Y83" s="14">
-        <v>0.14145505905608258</v>
-      </c>
-      <c r="Z83" s="14">
-        <v>0.14249151370435023</v>
-      </c>
-      <c r="AA83" s="14">
-        <v>0.14354280666933295</v>
-      </c>
-      <c r="AB83" s="14">
-        <v>0.14460924503809186</v>
-      </c>
-      <c r="AC83" s="14">
-        <v>0.14569114385622572</v>
-      </c>
-      <c r="AD83" s="14">
-        <v>0.14678882635612991</v>
-      </c>
-      <c r="AE83" s="14">
-        <v>0.14790262419095634</v>
-      </c>
-      <c r="AF83" s="14">
-        <v>0.14903287767423357</v>
-      </c>
-      <c r="AG83" s="14">
-        <v>0.15017993602507645</v>
-      </c>
-      <c r="AH83" s="14">
-        <v>0.15134415761887943</v>
-      </c>
-      <c r="AI83" s="14">
-        <v>0.15252591024334519</v>
-      </c>
-      <c r="AJ83" s="14">
-        <v>0.15372557135965603</v>
-      </c>
-      <c r="AK83" s="14">
-        <v>0.15494352836854014</v>
-      </c>
-      <c r="AL83" s="14">
-        <v>0.15618017888092389</v>
-      </c>
-      <c r="AM83" s="14">
-        <v>0.15743593099279266</v>
-      </c>
-      <c r="AN83" s="14">
-        <v>0.158711203563801</v>
-      </c>
-      <c r="AO83" s="14">
-        <v>0.16000642649908389</v>
-      </c>
-      <c r="AP83" s="14">
-        <v>0.16132204103361669</v>
-      </c>
-      <c r="AQ83" s="14">
-        <v>0.16265850001835364</v>
-      </c>
-      <c r="AR83" s="14">
-        <v>0.16401626820724113</v>
-      </c>
-      <c r="AS83" s="14">
-        <v>0.16539582254405094</v>
-      </c>
-      <c r="AT83" s="14">
-        <v>0.16679765244780362</v>
-      </c>
-      <c r="AU83" s="14">
-        <v>0.16822226009536029</v>
-      </c>
-      <c r="AV83" s="14">
-        <v>0.16967016069953378</v>
-      </c>
-      <c r="AW83" s="14">
-        <v>0.17114188278082237</v>
-      </c>
-      <c r="AX83" s="14">
-        <v>0.1726379684305793</v>
-      </c>
-      <c r="AY83" s="14">
-        <v>0.17415897356310808</v>
-      </c>
-      <c r="AZ83" s="14">
-        <v>0.17570546815380525</v>
-      </c>
-      <c r="BA83" s="14">
-        <v>0.17727803646005172</v>
-      </c>
-      <c r="BB83" s="14">
-        <v>0.17887727722108113</v>
-      </c>
-      <c r="BC83" s="14">
-        <v>0.18050380383251274</v>
-      </c>
-      <c r="BD83" s="14">
-        <v>0.18215824449062695</v>
-      </c>
-      <c r="BE83" s="14">
-        <v>0.1838412423007636</v>
-      </c>
-      <c r="BF83" s="14">
-        <v>0.18555345534343634</v>
-      </c>
-      <c r="BG83" s="14">
-        <v>0.18729555669085923</v>
-      </c>
-      <c r="BH83" s="14">
-        <v>0.18906823436556322</v>
-      </c>
-      <c r="BI83" s="14">
-        <v>0.19087219123162064</v>
-      </c>
-      <c r="BJ83" s="14">
-        <v>0.19270814480768078</v>
-      </c>
-      <c r="BK83" s="14">
-        <v>0.1945768269895192</v>
-      </c>
-      <c r="BL83" s="14">
-        <v>0.19647898366809993</v>
-      </c>
-      <c r="BM83" s="14">
-        <v>0.19841537422720659</v>
-      </c>
-      <c r="BN83" s="14">
-        <v>0.20038677090248758</v>
-      </c>
-      <c r="BO83" s="14">
-        <v>0.20239395798124094</v>
-      </c>
-      <c r="BP83" s="14">
-        <v>0.20443773081939207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:68">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>1960</v>
-      </c>
-      <c r="I85">
-        <v>1961</v>
-      </c>
-      <c r="J85">
-        <v>1962</v>
-      </c>
-      <c r="K85">
-        <v>1963</v>
-      </c>
-      <c r="L85">
-        <v>1964</v>
-      </c>
-      <c r="M85">
-        <v>1965</v>
-      </c>
-      <c r="N85">
-        <v>1966</v>
-      </c>
-      <c r="O85">
-        <v>1967</v>
-      </c>
-      <c r="P85">
-        <v>1968</v>
-      </c>
-      <c r="Q85">
-        <v>1969</v>
-      </c>
-      <c r="R85">
-        <v>1970</v>
-      </c>
-      <c r="S85">
-        <v>1971</v>
-      </c>
-      <c r="T85">
-        <v>1972</v>
-      </c>
-      <c r="U85">
-        <v>1973</v>
-      </c>
-      <c r="V85">
-        <v>1974</v>
-      </c>
-      <c r="W85">
-        <v>1975</v>
-      </c>
-      <c r="X85">
-        <v>1976</v>
-      </c>
-      <c r="Y85">
-        <v>1977</v>
-      </c>
-      <c r="Z85">
-        <v>1978</v>
-      </c>
-      <c r="AA85">
-        <v>1979</v>
-      </c>
-      <c r="AB85">
-        <v>1980</v>
-      </c>
-      <c r="AC85">
-        <v>1981</v>
-      </c>
-      <c r="AD85">
-        <v>1982</v>
-      </c>
-      <c r="AE85">
-        <v>1983</v>
-      </c>
-      <c r="AF85">
-        <v>1984</v>
-      </c>
-      <c r="AG85">
-        <v>1985</v>
-      </c>
-      <c r="AH85">
-        <v>1986</v>
-      </c>
-      <c r="AI85">
-        <v>1987</v>
-      </c>
-      <c r="AJ85">
-        <v>1988</v>
-      </c>
-      <c r="AK85">
-        <v>1989</v>
-      </c>
-      <c r="AL85">
-        <v>1990</v>
-      </c>
-      <c r="AM85">
-        <v>1991</v>
-      </c>
-      <c r="AN85">
-        <v>1992</v>
-      </c>
-      <c r="AO85">
-        <v>1993</v>
-      </c>
-      <c r="AP85">
-        <v>1994</v>
-      </c>
-      <c r="AQ85">
-        <v>1995</v>
-      </c>
-      <c r="AR85">
-        <v>1996</v>
-      </c>
-      <c r="AS85">
-        <v>1997</v>
-      </c>
-      <c r="AT85">
-        <v>1998</v>
-      </c>
-      <c r="AU85">
-        <v>1999</v>
-      </c>
-      <c r="AV85">
-        <v>2000</v>
-      </c>
-      <c r="AW85">
-        <v>2001</v>
-      </c>
-      <c r="AX85">
-        <v>2002</v>
-      </c>
-      <c r="AY85">
-        <v>2003</v>
-      </c>
-      <c r="AZ85">
-        <v>2004</v>
-      </c>
-      <c r="BA85">
-        <v>2005</v>
-      </c>
-      <c r="BB85">
-        <v>2006</v>
-      </c>
-      <c r="BC85">
-        <v>2007</v>
-      </c>
-      <c r="BD85">
-        <v>2008</v>
-      </c>
-      <c r="BE85">
-        <v>2009</v>
-      </c>
-      <c r="BF85">
-        <v>2010</v>
-      </c>
-      <c r="BG85">
-        <v>2011</v>
-      </c>
-      <c r="BH85">
-        <v>2012</v>
-      </c>
-      <c r="BI85">
-        <v>2013</v>
-      </c>
-      <c r="BJ85">
-        <v>2014</v>
-      </c>
-      <c r="BK85">
-        <v>2015</v>
-      </c>
-      <c r="BL85">
-        <v>2016</v>
-      </c>
-      <c r="BM85">
-        <v>2017</v>
-      </c>
-      <c r="BN85">
-        <v>2018</v>
-      </c>
-      <c r="BO85">
-        <v>2019</v>
-      </c>
-      <c r="BP85">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="86" spans="1:68">
-      <c r="A86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="19">
-        <v>0.31512404452781795</v>
-      </c>
-      <c r="I86" s="19">
-        <v>0.31231197364851887</v>
-      </c>
-      <c r="J86" s="19">
-        <v>0.30969312869773225</v>
-      </c>
-      <c r="K86" s="19">
-        <v>0.30725759686320681</v>
-      </c>
-      <c r="L86" s="19">
-        <v>0.3049960721601444</v>
-      </c>
-      <c r="M86" s="19">
-        <v>0.30289980368592373</v>
-      </c>
-      <c r="N86" s="19">
-        <v>0.30096056823702894</v>
-      </c>
-      <c r="O86" s="19">
-        <v>0.29917064037524022</v>
-      </c>
-      <c r="P86" s="19">
-        <v>0.29752276132833388</v>
-      </c>
-      <c r="Q86" s="19">
-        <v>0.29601010768833513</v>
-      </c>
-      <c r="R86" s="19">
-        <v>0.29462626056442587</v>
-      </c>
-      <c r="S86" s="19">
-        <v>0.29336517562641906</v>
-      </c>
-      <c r="T86" s="19">
-        <v>0.29222115431539758</v>
-      </c>
-      <c r="U86" s="19">
-        <v>0.29118881638405425</v>
-      </c>
-      <c r="V86" s="19">
-        <v>0.29026307384831601</v>
-      </c>
-      <c r="W86" s="19">
-        <v>0.28943910637510673</v>
-      </c>
-      <c r="X86" s="19">
-        <v>0.28871233809209373</v>
-      </c>
-      <c r="Y86" s="19">
-        <v>0.28807841577918303</v>
-      </c>
-      <c r="Z86" s="19">
-        <v>0.28753318838485986</v>
-      </c>
-      <c r="AA86" s="19">
-        <v>0.28707268780062284</v>
-      </c>
-      <c r="AB86" s="19">
-        <v>0.28669311082182447</v>
-      </c>
-      <c r="AC86" s="19">
-        <v>0.28639080222179691</v>
-      </c>
-      <c r="AD86" s="19">
-        <v>0.28616223886717956</v>
-      </c>
-      <c r="AE86" s="19">
-        <v>0.2860040148051135</v>
-      </c>
-      <c r="AF86" s="19">
-        <v>0.28591282725686962</v>
-      </c>
-      <c r="AG86" s="19">
-        <v>0.28588546345712496</v>
-      </c>
-      <c r="AH86" s="19">
-        <v>0.28591878828319883</v>
-      </c>
-      <c r="AI86" s="19">
-        <v>0.28600973262390073</v>
-      </c>
-      <c r="AJ86" s="19">
-        <v>0.28615528244305727</v>
-      </c>
-      <c r="AK86" s="19">
-        <v>0.28635246849817902</v>
-      </c>
-      <c r="AL86" s="19">
-        <v>0.28659835668001549</v>
-      </c>
-      <c r="AM86" s="19">
-        <v>0.28689003894386689</v>
-      </c>
-      <c r="AN86" s="19">
-        <v>0.28722462480845024</v>
-      </c>
-      <c r="AO86" s="19">
-        <v>0.2875992334028013</v>
-      </c>
-      <c r="AP86" s="19">
-        <v>0.28801098604613845</v>
-      </c>
-      <c r="AQ86" s="19">
-        <v>0.28845699934977886</v>
-      </c>
-      <c r="AR86" s="19">
-        <v>0.28893437883408096</v>
-      </c>
-      <c r="AS86" s="19">
-        <v>0.28944021305697287</v>
-      </c>
-      <c r="AT86" s="19">
-        <v>0.28997156825390069</v>
-      </c>
-      <c r="AU86" s="19">
-        <v>0.29052548349198315</v>
-      </c>
-      <c r="AV86" s="19">
-        <v>0.29109896634377785</v>
-      </c>
-      <c r="AW86" s="19">
-        <v>0.29168898908834057</v>
-      </c>
-      <c r="AX86" s="19">
-        <v>0.29229248544918041</v>
-      </c>
-      <c r="AY86" s="19">
-        <v>0.29290634788027187</v>
-      </c>
-      <c r="AZ86" s="19">
-        <v>0.29352742541247889</v>
-      </c>
-      <c r="BA86" s="19">
-        <v>0.29415252207357001</v>
-      </c>
-      <c r="BB86" s="19">
-        <v>0.29477839589545518</v>
-      </c>
-      <c r="BC86" s="19">
-        <v>0.29540175852237238</v>
-      </c>
-      <c r="BD86" s="19">
-        <v>0.29601927543349282</v>
-      </c>
-      <c r="BE86" s="19">
-        <v>0.29662756679282276</v>
-      </c>
-      <c r="BF86" s="19">
-        <v>0.29722320893838222</v>
-      </c>
-      <c r="BG86" s="19">
-        <v>0.29780273652145406</v>
-      </c>
-      <c r="BH86" s="19">
-        <v>0.29836264530526935</v>
-      </c>
-      <c r="BI86" s="19">
-        <v>0.29889939563084361</v>
-      </c>
-      <c r="BJ86" s="19">
-        <v>0.29940941655586806</v>
-      </c>
-      <c r="BK86" s="19">
-        <v>0.29988911067059976</v>
-      </c>
-      <c r="BL86" s="19">
-        <v>0.3003348595926425</v>
-      </c>
-      <c r="BM86" s="19">
-        <v>0.30074303014038839</v>
-      </c>
-      <c r="BN86" s="19">
-        <v>0.30110998118271198</v>
-      </c>
-      <c r="BO86" s="19">
-        <v>0.30143207116029613</v>
-      </c>
-      <c r="BP86" s="19">
-        <v>0.30170566627169493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:68">
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="14"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="14"/>
-      <c r="Z87" s="14"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="14"/>
-      <c r="AC87" s="14"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="14"/>
-      <c r="AF87" s="14"/>
-      <c r="AG87" s="14"/>
-      <c r="AH87" s="14"/>
-      <c r="AI87" s="14"/>
-      <c r="AJ87" s="14"/>
-      <c r="AK87" s="14"/>
-      <c r="AL87" s="14"/>
-      <c r="AM87" s="14"/>
-      <c r="AN87" s="14"/>
-      <c r="AO87" s="14"/>
-      <c r="AP87" s="14"/>
-      <c r="AQ87" s="14"/>
-      <c r="AR87" s="14"/>
-      <c r="AS87" s="14"/>
-      <c r="AT87" s="14"/>
-      <c r="AU87" s="14"/>
-      <c r="AV87" s="14"/>
-      <c r="AW87" s="14"/>
-      <c r="AX87" s="14"/>
-      <c r="AY87" s="14"/>
-      <c r="AZ87" s="14"/>
-      <c r="BA87" s="14"/>
-      <c r="BB87" s="14"/>
-      <c r="BC87" s="14"/>
-      <c r="BD87" s="14"/>
-      <c r="BE87" s="14"/>
-      <c r="BF87" s="14"/>
-      <c r="BG87" s="14"/>
-      <c r="BH87" s="14"/>
-      <c r="BI87" s="14"/>
-      <c r="BJ87" s="14"/>
-      <c r="BK87" s="14"/>
-      <c r="BL87" s="14"/>
-      <c r="BM87" s="14"/>
-      <c r="BN87" s="14"/>
-      <c r="BO87" s="14"/>
-      <c r="BP87" s="14"/>
-    </row>
-    <row r="88" spans="1:68">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>1960</v>
-      </c>
-      <c r="I88">
-        <v>1961</v>
-      </c>
-      <c r="J88">
-        <v>1962</v>
-      </c>
-      <c r="K88">
-        <v>1963</v>
-      </c>
-      <c r="L88">
-        <v>1964</v>
-      </c>
-      <c r="M88">
-        <v>1965</v>
-      </c>
-      <c r="N88">
-        <v>1966</v>
-      </c>
-      <c r="O88">
-        <v>1967</v>
-      </c>
-      <c r="P88">
-        <v>1968</v>
-      </c>
-      <c r="Q88">
-        <v>1969</v>
-      </c>
-      <c r="R88">
-        <v>1970</v>
-      </c>
-      <c r="S88">
-        <v>1971</v>
-      </c>
-      <c r="T88">
-        <v>1972</v>
-      </c>
-      <c r="U88">
-        <v>1973</v>
-      </c>
-      <c r="V88">
-        <v>1974</v>
-      </c>
-      <c r="W88">
-        <v>1975</v>
-      </c>
-      <c r="X88">
-        <v>1976</v>
-      </c>
-      <c r="Y88">
-        <v>1977</v>
-      </c>
-      <c r="Z88">
-        <v>1978</v>
-      </c>
-      <c r="AA88">
-        <v>1979</v>
-      </c>
-      <c r="AB88">
-        <v>1980</v>
-      </c>
-      <c r="AC88">
-        <v>1981</v>
-      </c>
-      <c r="AD88">
-        <v>1982</v>
-      </c>
-      <c r="AE88">
-        <v>1983</v>
-      </c>
-      <c r="AF88">
-        <v>1984</v>
-      </c>
-      <c r="AG88">
-        <v>1985</v>
-      </c>
-      <c r="AH88">
-        <v>1986</v>
-      </c>
-      <c r="AI88">
-        <v>1987</v>
-      </c>
-      <c r="AJ88">
-        <v>1988</v>
-      </c>
-      <c r="AK88">
-        <v>1989</v>
-      </c>
-      <c r="AL88">
-        <v>1990</v>
-      </c>
-      <c r="AM88">
-        <v>1991</v>
-      </c>
-      <c r="AN88">
-        <v>1992</v>
-      </c>
-      <c r="AO88">
-        <v>1993</v>
-      </c>
-      <c r="AP88">
-        <v>1994</v>
-      </c>
-      <c r="AQ88">
-        <v>1995</v>
-      </c>
-      <c r="AR88">
-        <v>1996</v>
-      </c>
-      <c r="AS88">
-        <v>1997</v>
-      </c>
-      <c r="AT88">
-        <v>1998</v>
-      </c>
-      <c r="AU88">
-        <v>1999</v>
-      </c>
-      <c r="AV88">
-        <v>2000</v>
-      </c>
-      <c r="AW88">
-        <v>2001</v>
-      </c>
-      <c r="AX88">
-        <v>2002</v>
-      </c>
-      <c r="AY88">
-        <v>2003</v>
-      </c>
-      <c r="AZ88">
-        <v>2004</v>
-      </c>
-      <c r="BA88">
-        <v>2005</v>
-      </c>
-      <c r="BB88">
-        <v>2006</v>
-      </c>
-      <c r="BC88">
-        <v>2007</v>
-      </c>
-      <c r="BD88">
-        <v>2008</v>
-      </c>
-      <c r="BE88">
-        <v>2009</v>
-      </c>
-      <c r="BF88">
-        <v>2010</v>
-      </c>
-      <c r="BG88">
-        <v>2011</v>
-      </c>
-      <c r="BH88">
-        <v>2012</v>
-      </c>
-      <c r="BI88">
-        <v>2013</v>
-      </c>
-      <c r="BJ88">
-        <v>2014</v>
-      </c>
-      <c r="BK88">
-        <v>2015</v>
-      </c>
-      <c r="BL88">
-        <v>2016</v>
-      </c>
-      <c r="BM88">
-        <v>2017</v>
-      </c>
-      <c r="BN88">
-        <v>2018</v>
-      </c>
-      <c r="BO88">
-        <v>2019</v>
-      </c>
-      <c r="BP88">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="89" spans="1:68" s="17" customFormat="1">
-      <c r="E89" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H89" s="18">
-        <f>$C78/$C77*H83*$G70+$C78/$C76*H86*$G71</f>
-        <v>0.20118403390641193</v>
-      </c>
-      <c r="I89" s="18">
-        <f t="shared" ref="I89:BP89" si="0">$C78/$C77*I83*$G70+$C78/$C76*I86*$G71</f>
-        <v>0.19986298944527098</v>
-      </c>
-      <c r="J89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19864910577326808</v>
-      </c>
-      <c r="K89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.1975370673516644</v>
-      </c>
-      <c r="L89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19652188823669448</v>
-      </c>
-      <c r="M89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19559888411049506</v>
-      </c>
-      <c r="N89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19476365749733887</v>
-      </c>
-      <c r="O89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19401208160055122</v>
-      </c>
-      <c r="P89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19334028350980031</v>
-      </c>
-      <c r="Q89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19274462729996716</v>
-      </c>
-      <c r="R89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19222169737723033</v>
-      </c>
-      <c r="S89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19176828230829912</v>
-      </c>
-      <c r="T89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19138135928251043</v>
-      </c>
-      <c r="U89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19105807929477586</v>
-      </c>
-      <c r="V89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19079575309355618</v>
-      </c>
-      <c r="W89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19059183790733639</v>
-      </c>
-      <c r="X89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19044392494196447</v>
-      </c>
-      <c r="Y89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19034972762709804</v>
-      </c>
-      <c r="Z89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19030707058098362</v>
-      </c>
-      <c r="AA89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19031387925745699</v>
-      </c>
-      <c r="AB89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19036817023638153</v>
-      </c>
-      <c r="AC89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19046804211795923</v>
-      </c>
-      <c r="AD89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19061166698190768</v>
-      </c>
-      <c r="AE89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19079728237397672</v>
-      </c>
-      <c r="AF89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19102318378438402</v>
-      </c>
-      <c r="AG89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19128771758525687</v>
-      </c>
-      <c r="AH89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19158927439691709</v>
-      </c>
-      <c r="AI89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19192628285572569</v>
-      </c>
-      <c r="AJ89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19229720375912374</v>
-      </c>
-      <c r="AK89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19270052456641198</v>
-      </c>
-      <c r="AL89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19313475423665696</v>
-      </c>
-      <c r="AM89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19359841838786693</v>
-      </c>
-      <c r="AN89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19409005476422816</v>
-      </c>
-      <c r="AO89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19460820900070469</v>
-      </c>
-      <c r="AP89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19515143067668517</v>
-      </c>
-      <c r="AQ89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19571826965258532</v>
-      </c>
-      <c r="AR89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19630727268538375</v>
-      </c>
-      <c r="AS89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19691698032097188</v>
-      </c>
-      <c r="AT89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19754592406292906</v>
-      </c>
-      <c r="AU89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19819262381888456</v>
-      </c>
-      <c r="AV89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19885558562698979</v>
-      </c>
-      <c r="AW89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.19953329966619637</v>
-      </c>
-      <c r="AX89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20022423855500343</v>
-      </c>
-      <c r="AY89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20092685594410409</v>
-      </c>
-      <c r="AZ89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20163958540891533</v>
-      </c>
-      <c r="BA89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20236083964832111</v>
-      </c>
-      <c r="BB89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20308900999608615</v>
-      </c>
-      <c r="BC89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20382246625131936</v>
-      </c>
-      <c r="BD89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20455955683407825</v>
-      </c>
-      <c r="BE89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20529860927171362</v>
-      </c>
-      <c r="BF89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20603793102087903</v>
-      </c>
-      <c r="BG89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20677581062926675</v>
-      </c>
-      <c r="BH89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20751051924011238</v>
-      </c>
-      <c r="BI89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20824031244133362</v>
-      </c>
-      <c r="BJ89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20896343245986973</v>
-      </c>
-      <c r="BK89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.20967811070036046</v>
-      </c>
-      <c r="BL89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21038257062577914</v>
-      </c>
-      <c r="BM89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21107503097601232</v>
-      </c>
-      <c r="BN89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21175370931866175</v>
-      </c>
-      <c r="BO89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21241682592453309</v>
-      </c>
-      <c r="BP89" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21306260795834572</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>